--- a/data/tag-register-data.xlsx
+++ b/data/tag-register-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexluscombe/Desktop/PLP-tag-register/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92438699-2FDA-6B44-B4E9-E9EC57CEFB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C652320-FB24-924B-B8AE-70C443E1687E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAG Register" sheetId="1" r:id="rId1"/>
@@ -2604,7 +2604,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
